--- a/data/raw/user_inputs.xlsx
+++ b/data/raw/user_inputs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huo\Documents\Python Scripts\plastics_optimization\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huo\Documents\GitHub\polyLOP\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB1CF7-5A60-4DE0-9BA7-A152037D0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6015" windowHeight="5985"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -142,12 +143,15 @@
   </si>
   <si>
     <t>fossil_lock_in</t>
+  </si>
+  <si>
+    <t>chemical_recycling_pyrolysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,15 +575,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -587,15 +591,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -603,7 +607,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -611,99 +615,107 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="b">
+      <c r="B25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -714,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/raw/user_inputs.xlsx
+++ b/data/raw/user_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huo\Documents\GitHub\polyLOP\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB1CF7-5A60-4DE0-9BA7-A152037D0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A11B0-34F4-411A-BF3D-DDE357EA89C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="biomass_availability" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -484,7 +495,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
